--- a/Modules/xlwings/experiment.xlsx
+++ b/Modules/xlwings/experiment.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_space\software_projects\Python\learning_curve\Modules\xlwings module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\my_space\software_projects\python\learning_curve\modules\xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="3405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +21,71 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>killer</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>forever</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>kkr</t>
+  </si>
+  <si>
+    <t>csl</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +401,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D6:F10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>